--- a/results/extracted_data_process_1.xlsx
+++ b/results/extracted_data_process_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO9"/>
+  <dimension ref="A1:BO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,43 +773,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>cao_tekst_JZ_2017_2019__23_8_17.json</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C2" t="n">
-        <v>10009</v>
+        <v>234003</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Pension</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25/03/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -817,11 +817,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>construction site employee</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -850,24 +846,20 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>The CAO is a minimum CAO. Guarantee Wages for Construction Site Workers are Mentioned in Articles 42A, 42B, and 42C, But the Wage Tables Are Not Included in The Provied Text.</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>22 years and older</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>If the employee opts for full or partial continuation of pension accrual during life-course leave, the employer will pay the full or partial employer's share of the pension premium for a maximum of 3 months, according to Article 11.</t>
+        </is>
+      </c>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>The employment contract automatically ends on the day the employee reaches the state pension (AOW) age.</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
@@ -894,43 +886,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>cao_tekst_JZ_2017_2019__23_8_17.json</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C3" t="n">
-        <v>10009</v>
+        <v>234003</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25/03/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -938,11 +930,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>UTA employee</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -971,21 +959,9 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>The CAO is a minimum CAO. Salary Scales for Uta Workers Are Mentioned in article 43, but the salary tables are not included in the provid text.</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>22 years and older</t>
-        </is>
-      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -994,9 +970,21 @@
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>For a 36-hour workweek, the employee is entitled to 144 statutory vacation hours and 56 extra leave hours (leave budget), totaling 200 hours per year.</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>The holiday allowance is 8% of the earned salary, paid out no later than May 31 each year, covering the preceding period from June 1 to May 31. As of July 1, 2018, the minimum holiday allowance is €171.56 per month for a 36-hour workweek. Statutory vacation hours should preferably be used within the same year but can be carried over. The employee is required to take at least two consecutive weeks of vacation and is entitled to three consecutive weeks. The 56 extra leave hours can be used for time off, paid out, or contributed to a life-course savings scheme (for existing participants).</t>
+        </is>
+      </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1015,43 +1003,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>cao_tekst_JZ_2017_2019__23_8_17.json</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C4" t="n">
-        <v>10009</v>
+        <v>234003</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pension</t>
+          <t>Termination</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25/03/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1102,10 +1090,26 @@
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>The notice period for the employer is 2 months, unless the statutory period under Article 7:672 paragraph 2 of the Civil Code is longer. A longer notice period of up to 6 months can be agreed upon in the employment contract.</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>The notice period starts on the first day of the month following the month in which notice was given. Notice must be given in writing. If the statutory notice period is longer, that period applies.</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>The notice period for the employee is 2 months. A longer notice period of up to 6 months can be agreed upon in the employment contract, which then applies to both employer and employee.</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>The notice period starts on the first day of the month following the month in which notice was given. Notice must be given in writing. If an employee was 45 or older on January 1, 1999, and had a notice period longer than 2 months at that time, that longer notice period remains in effect as long as the employee works for the same employer.</t>
+        </is>
+      </c>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
@@ -1120,43 +1124,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>cao_tekst_JZ_2017_2019__23_8_17.json</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C5" t="n">
-        <v>10009</v>
+        <v>234003</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Overtime</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25/03/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1203,37 +1207,41 @@
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>Protective Measures Regarding the Terms and Conditions of Employment For Pregnant or Recently Delivered Women Are Applica (Art. 7F).</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Construction site employees (art. 35a): 25-38 Days Depending on Age (18-54 years: 25; 55-59 years: 35; 60+ years: 38). Under 18: 29 days. UTA employees (art. 35b): 25-36 Days Depending on Age (18-54 years: 25; 55-59 years: 34; 60+ years: 36). Under 18: 27 days. Additionally, construction site employees are entitled to 22 Scheduled Days Off (schedule -free days) per calendar year (art. 36a).</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>days per year</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>Vacation Days Include Statutory Days, Non-Statutory Days, and Senior Days. Entitlement is pro-rata for employment shorter than a year. A Construction Site Worker is EntitLed to Three Consecutive Weeks of Summer Vacation. For Uta Workers, at Least Fifteen Consecutive Days Must Be Taken If Business Interests Require IT. Vacation Accrual Duration Illness is Limited for Non-Statutory and Senior Days. Of the 22 Scheduled Days Off for Construction Site Workers, 2 Are Designated for Training.</t>
-        </is>
-      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>For employees in salary scales 0 to 8, there is a choice between extra leave hours or a payment of 125% of the hourly wage for each overtime hour. For employees in salary scale 9 or higher, the compensation is in time off. The employer can, in consultation with the employee, choose to pay out these hours at the normal hourly rate (without a surcharge).</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>The employee can opt for a workweek of up to 40 hours. For on-call duty, an employee may not work more than 28 hours per 56 consecutive days as a result of being called in.</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>For on-call contracts, if an employee is called in to work for less than three hours, they are entitled to payment for three hours. Additionally, on-call workers are guaranteed a monthly compensation equivalent to the salary for 30 hours of work.</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>The allowance for irregular shifts is: 25% for work between 19:00-22:00 and 06:00-07:00 from Monday to Friday. 45% for work between 22:00 and 06:00 from Monday to Sunday. 30% for work on Saturdays between 06:00 and 22:00. 45% for work on Sundays and national holidays. Some different hours apply for employees not on a rotating schedule.</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>If the overtime is less than half an hour, no compensation or leave hours are granted.</t>
+        </is>
+      </c>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
@@ -1241,43 +1249,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>cao_tekst_JZ_2017_2019__23_8_17.json</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C6" t="n">
-        <v>10009</v>
+        <v>234003</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Termination</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25/03/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1328,85 +1336,65 @@
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>For Uta Workers, The Notice Period is: 1 Month For Less Than 5 Years of Service, 2 Months for 5-10 Years, 3 months for 10-15 years, and 4 months for 15 years or more. This can be shortned by one months with a UWV Permit, but not to less than one months (art. 20b). For Construction Site Workers, The Notice Period is Determined by Tables in Appendix 5 (Not Provided). The Statutory Notice Periods Apply to Certain Drivers (art. 20a).</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>Notice must be given in Writing. For construction site workers, termination take effect at the end of a pay week; For Uta Workers, At the End of A Pay Period. The Notice Period for Construction Site Workers is Extended by Any Summer Vacation Days Falling Within It. There is a dismissal ban for industrial scaffolding workers from November 1 to April 1. For Uta Workers, an indefinite contract automatically ends on the day the employee reaches the state peebeligible age, uless otherwise agreed (art. 20b.9).</t>
-        </is>
-      </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>For Uta Workers, The Notice Period is One Month (art. 20b.4). For construction site workers, it is determined by tables in appendix 5 (not provid) (art. 20a.2).</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>Notice must be Given in Writing (art. 20a.4, 20b.1).</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>For Construction Site Workers: 2 Week for Contracts &lt;1 year; 1 months for contracts or 1 to &lt;2 years; 2 months for contracts or 2 years or longer. For Uta Workers: 2 months for an indefinite contract; Max 1 months for a fixed term contract &lt;2 years or without a calendar end date; Max 2 months for a fixed term contract or 2 years or longer (art. 17.3).</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>A Probation Period is only valid if agreed Upon in Writing (art. 17.3).</t>
-        </is>
-      </c>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>Employers can hire trainees in a scale one level lower than the target function for a 1-2 year period. A mobility budget of on average €4,000 per redundant employee is available for training/schooling. Interns receive an allowance of €250 per month for a 32+ hour week. The employer covers registration costs for the BIG register and the Youth Quality Register. An apprentice-employee receives a contract for at least 20 hours per week.</t>
+        </is>
+      </c>
       <c r="BO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>cao_tekst_JZ_2017_2019__23_8_17.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C7" t="n">
-        <v>10009</v>
+        <v>234003</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Overtime</t>
+          <t>Homeoffice</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25/03/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1463,110 +1451,190 @@
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>For construction site workers, overtime can be compensated in pay or time off. Surcharges for pay are: 25% for the first 3 hours per day; 50% for Subsequent Hours and on Saturday's Until 21:00; 100% for work between Saturday 21:00 and Monday 05:00 and on Holidays. For Uta Workers, Compensation for Significantly OVIME MUST BE Specific in Writing; otherwise, it is compensated at Least at the Hourly rate or time-time for function levels up to three (art. 30, 31).</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>The Normal Working Week is 40 hours. For construction site workers, compulsory overtime is limited to a maximum of 3 hours per week and 64 hours per year, for up to 26 weeks a year. The Total Time Spent On (Over) Work, Travel, and Breaks May Not Exceed 13 Hours per day. An Alternative Workweek Agreement Can Allow for Daily Hours Between 7 and 9, Averaging 40 Hours in 13 weeks. (Art. 23, 28, 29).</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>The Normal Working Day is 8 hours. With An Alternative Workweek Agreement, The Minimum Daily Working Hours Can Be 7 (Art. 23).</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>For Construction Site Workers in Shift Work, The Wage is Increased by 10% For Two-Shift and 15% for Three-Shift Systems. For Shifted Hours in Infrastructure Works, A Surcharge or 30% to 100% Applies Depending on the Day and Time. For Tidal Work, A 25% Surcharge Applies for Hours Outside the Normal Window. Maintenance Work on Saturday has a 50% Surcharge. A Weekly on-Call Duty is compensated with € 129.16 to € 176.13, Depending on the Level of Restricion (art. 27, 32A, 32B, 33, 34).</t>
-        </is>
-      </c>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>The employer and the works council (OR) or employee representation (PVT) establish in a company regulation the conditions under which location- and time-independent work can be performed. This regulation also specifies which groups of employees can request to structurally work part of their time from home. If the employer instructs the employee to perform work independently of time and place, a reimbursement scheme is part of the company regulation.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>1547</v>
       </c>
       <c r="C8" t="n">
-        <v>10009</v>
+        <v>1547005</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Wage</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1456.2</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>1344.2</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>1478.04</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>1364.36</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>1496.52</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>1381.42</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>25/03/2014</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>The employees' jobs are classified into job groups based on the ORBA job evaluation system. The period salary is 12/13 of the monthly salary. Hourly wage: monthly salary x 3 / 13 / 40 or period salary / 4 / 40. As of January 1, 2013, the youth scales are: 16 years = 50%, 17 years = 60%, 18 years = 70%, 19 years = 80%, 20 years = 90%, 21 years = 100% of the starting salary of the adult salary scale. For employees who have reached the adult age for their function and have not yet reached the final salary of their scale, an individual differentiated increase is granted based on performance assessment: 0.75% for normal performance, 1.5% for good performance, 0% for underperformance, effective Jan 1, 2013, and Jan 1, 2014. If no assessment system is agreed upon, the increase is 0.75% of the scale salary. An end-of-year bonus of 1% of the total monthly or period incomes earned in the calendar year will be granted. The salary scales as of July 1, 2012, were adjusted for the minimum wage. As of January 1, 2013, the final salary for group 1 is set at €1525.</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1590,92 +1658,180 @@
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>The Employer Will Inform New Employees About Training Opportunities (art. 18.f). For Construction Site Workers, Two or Their 22 Scheduled Days Off per year are to be used for training as Defined in article 62a (art. 36a.2.a). Construction site workers aged 55 or older on a four-day workweek can attend two days of training per year on their day off, with course and travel costs being declarable (art. 26a.5). The CAO Defines 'Apprentice' (student employee) and 'Training Company' (training company) (art. 1.5, 1.9).</t>
-        </is>
-      </c>
+      <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAO_2014_aanmelding_20_3_2014.json</t>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>1547</v>
       </c>
       <c r="C9" t="n">
-        <v>10009</v>
+        <v>1547005</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home office</t>
+          <t>Wage</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1480.35</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>1366.46</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1502.56</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>1386.96</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>1521.34</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>1404.3</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>25/03/2014</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>The employees' jobs are classified into job groups based on the ORBA job evaluation system. The period salary is 12/13 of the monthly salary. Hourly wage: monthly salary x 3 / 13 / 40 or period salary / 4 / 40. As of January 1, 2013, the youth scales are: 16 years = 50%, 17 years = 60%, 18 years = 70%, 19 years = 80%, 20 years = 90%, 21 years = 100% of the starting salary of the adult salary scale. For employees who have reached the adult age for their function and have not yet reached the final salary of their scale, an individual differentiated increase is granted based on performance assessment: 0.75% for normal performance, 1.5% for good performance, 0% for underperformance, effective Jan 1, 2013, and Jan 1, 2014. If no assessment system is agreed upon, the increase is 0.75% of the scale salary. An end-of-year bonus of 1% of the total monthly or period incomes earned in the calendar year will be granted. The salary scales as of July 1, 2012, were adjusted for the minimum wage. As of January 1, 2013, the final salary for group 1 is set at €1525.</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1702,6 +1858,5873 @@
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Group 3</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1564.46</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>1444.12</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>1587.93</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>1465.78</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>1607.78</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>1484.1</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>The employees' jobs are classified into job groups based on the ORBA job evaluation system. The period salary is 12/13 of the monthly salary. Hourly wage: monthly salary x 3 / 13 / 40 or period salary / 4 / 40. As of January 1, 2013, the youth scales are: 16 years = 50%, 17 years = 60%, 18 years = 70%, 19 years = 80%, 20 years = 90%, 21 years = 100% of the starting salary of the adult salary scale. For employees who have reached the adult age for their function and have not yet reached the final salary of their scale, an individual differentiated increase is granted based on performance assessment: 0.75% for normal performance, 1.5% for good performance, 0% for underperformance, effective Jan 1, 2013, and Jan 1, 2014. If no assessment system is agreed upon, the increase is 0.75% of the scale salary. An end-of-year bonus of 1% of the total monthly or period incomes earned in the calendar year will be granted. The salary scales as of July 1, 2012, were adjusted for the minimum wage. As of January 1, 2013, the final salary for group 1 is set at €1525.</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Group 4</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1648.59</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>1521.78</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>1673.32</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>1544.61</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>1694.24</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>1563.92</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>The employees' jobs are classified into job groups based on the ORBA job evaluation system. The period salary is 12/13 of the monthly salary. Hourly wage: monthly salary x 3 / 13 / 40 or period salary / 4 / 40. As of January 1, 2013, the youth scales are: 16 years = 50%, 17 years = 60%, 18 years = 70%, 19 years = 80%, 20 years = 90%, 21 years = 100% of the starting salary of the adult salary scale. For employees who have reached the adult age for their function and have not yet reached the final salary of their scale, an individual differentiated increase is granted based on performance assessment: 0.75% for normal performance, 1.5% for good performance, 0% for underperformance, effective Jan 1, 2013, and Jan 1, 2014. If no assessment system is agreed upon, the increase is 0.75% of the scale salary. An end-of-year bonus of 1% of the total monthly or period incomes earned in the calendar year will be granted. The salary scales as of July 1, 2012, were adjusted for the minimum wage. As of January 1, 2013, the final salary for group 1 is set at €1525.</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Group 5</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1733.87</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>1600.49</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>1759.88</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>1624.5</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>1781.88</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>1644.81</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>The employees' jobs are classified into job groups based on the ORBA job evaluation system. The period salary is 12/13 of the monthly salary. Hourly wage: monthly salary x 3 / 13 / 40 or period salary / 4 / 40. As of January 1, 2013, the youth scales are: 16 years = 50%, 17 years = 60%, 18 years = 70%, 19 years = 80%, 20 years = 90%, 21 years = 100% of the starting salary of the adult salary scale. For employees who have reached the adult age for their function and have not yet reached the final salary of their scale, an individual differentiated increase is granted based on performance assessment: 0.75% for normal performance, 1.5% for good performance, 0% for underperformance, effective Jan 1, 2013, and Jan 1, 2014. If no assessment system is agreed upon, the increase is 0.75% of the scale salary. An end-of-year bonus of 1% of the total monthly or period incomes earned in the calendar year will be granted. The salary scales as of July 1, 2012, were adjusted for the minimum wage. As of January 1, 2013, the final salary for group 1 is set at €1525.</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Group 6</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1823.84</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>1683.54</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>1851.2</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>1708.79</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1874.34</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>1730.15</v>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>The employees' jobs are classified into job groups based on the ORBA job evaluation system. The period salary is 12/13 of the monthly salary. Hourly wage: monthly salary x 3 / 13 / 40 or period salary / 4 / 40. As of January 1, 2013, the youth scales are: 16 years = 50%, 17 years = 60%, 18 years = 70%, 19 years = 80%, 20 years = 90%, 21 years = 100% of the starting salary of the adult salary scale. For employees who have reached the adult age for their function and have not yet reached the final salary of their scale, an individual differentiated increase is granted based on performance assessment: 0.75% for normal performance, 1.5% for good performance, 0% for underperformance, effective Jan 1, 2013, and Jan 1, 2014. If no assessment system is agreed upon, the increase is 0.75% of the scale salary. An end-of-year bonus of 1% of the total monthly or period incomes earned in the calendar year will be granted. The salary scales as of July 1, 2012, were adjusted for the minimum wage. As of January 1, 2013, the final salary for group 1 is set at €1525.</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>The pension scheme is implemented by the Industry Pension Fund for the Wholesale Trade in Flowers and Plants (BPF GBP). The scheme is based on a defined contribution system. The available premium is 8% of the pensionable salary, with a 50% employee contribution deducted from the gross salary. There is an aim for indexation and an investment guarantee. For function groups VII to IX, participation can be voluntary.</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>To promote labor participation of older employees, from January 1, 2013, employees and employers can agree to reduce working hours to 80% while retaining 90% of the salary and 100% pension accrual based on the last salary before participation. This is possible for a maximum of 4 years before the statutory AOW age for employees with at least 5 years of continuous service. The pension premium is split 50:50. The pension fund will also be asked to design a scheme for individual savings for extra pension, to be introduced if possible on January 1, 2013.</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>The employment contract ends on the day the employee reaches the AOW-entitled age.</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>Participation in the scheme for older workers to reduce working hours is possible for a maximum of 4 years before the statutory AOW age.</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>For function groups VII to IX, participation can be on a voluntary basis.</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Paternity leave: 2 days upon the birth of the partner's child. Adoption leave: 2 days. Parental leave: 26 times the weekly working hours per child, until the child is 8 years old.</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Paternity leave and adoption leave are with retention of salary. Parental leave is unpaid.</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Parental leave is available to employees with at least 1 year of service. It can be taken flexibly, but for a maximum continuous period of 12 months. The number of leave hours per week is at most half of the agreed weekly working hours. Taking parental leave does not affect pension accrual. In addition to paternity leave, an employee can take up to 3 vacation days; if the vacation balance is insufficient, unpaid leave may be taken.</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>A full-time employee is entitled to 192 vacation hours per year. Extra hours are granted based on age: 16 extra hours from the year the employee turns 50; 32 extra hours from age 55; 48 extra hours from age 60; 64 extra hours from age 63.</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>hours per vacation year</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>The vacation year runs from January 1 to December 31. The employer may set up to 32 compulsory vacation hours per year and may establish a collective company holiday. The employee is entitled to at least 15 consecutive days of vacation. Vacation entitlements expire after 5 years. The holiday allowance is 8% of the gross monthly salaries from June to May, paid out in May or June. Upon termination, remaining vacation days can be paid out. If an older employee participates in the 80-90-100 work reduction scheme, the age-related extra vacation days are forfeited.</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>If the employee has been in service for less than 5 years: 1 month; between 5 and 10 years: 2 months; between 10 and 15 years: 3 months; 15 years or more: 4 months.</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>Termination of an indefinite-term contract requires prior permission from the UWV Werkbedrijf. Notice must be given at the end of the month, or at the end of a 4-week period if the employee is paid per period.</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>1 month.</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>Notice must be given at the end of the month, or at the end of a 4-week period if the employee is paid per period.</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>Two months for an indefinite-term contract and for a fixed-term contract of two years or longer. One month for a fixed-term contract shorter than two years but longer than six months.</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>The probationary period must be agreed upon in writing. Article 7:652 of the Civil Code applies.</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>From January 1, 2013: Overtime is defined as work exceeding 40 hours per week or 10 hours per day. The surcharge is 26% for work on Monday to Saturday, 50% for a sixth workday, and 100% for a Sunday or public holiday. Employees can choose payment in money or time off, with a maximum of 40 hours of time off compensation per 3-month period.
+Before January 1, 2013: Overtime included work beyond 40 hours/week, outside the daily work schedule (dagspiegel), or more than 10 hours/day. The surcharge was 30% for Monday-Saturday, 50% for a sixth workday, and 100% for a Sunday or public holiday.</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>The normal working day is a maximum of 10 hours. A full-time employee cannot be required to work more than 160 hours of overtime over a 26-week period. Under the variable working hours scheme, the work week can be up to 45 hours.</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>The normal working day is a minimum of 3 hours. Under the variable working hours scheme, the work week can be as low as 32 hours.</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>From January 1, 2013: A daily work schedule (dagspiegel) is set between 06:00 and 23:00, during which no supplement is paid. Work between 23:00 and 06:00 receives a 26% night supplement. Work on a Sunday or public holiday is compensated with 100% of the salary plus a 100% supplement.
+Before January 1, 2013: The daily work schedule (dagspiegel) was a maximum of 12 hours between 00:00 and 24:00. Work outside these hours was considered overtime with a 30% supplement (Mon-Sat).</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>From January 1, 2013, the night supplement of 26% is applicable if an employee works at least 3 hours between 23:00 and 06:00. Incidental extra work of up to half an hour directly before or after the daily work does not receive an overtime supplement.</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>A full-time employee cannot be obliged to work more than 160 hours of overtime over a period of 26 weeks. For part-time employees, this norm applies pro rata.</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>The employer will set aside 0.4% of its payroll for training costs. Costs for training that benefit both the company and the employee's potential future role are reimbursed from this budget. An employee following an employer-approved course will be granted four half-days of paid leave to prepare for the exam. The employer promotes participation in training. Future topics for discussion include career development.</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Groothandel_in_Bloemen_en_Planten____CAO_2012_2014.json</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1547005</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>26/03/2013</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Group I. Job titles: filler, filling crew member, general employee, trainee sales employee, trainee cashier, trainee administrative employee, and seasonal help.</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>1026.6</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>947.63</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Salary amounts are based on a 38-hour work week. The hourly wage is the monthly wage divided by 164.67. To calculate 4-week wages from monthly wages, multiply by 12 and divide by 13. Salary increases for function years apply after the 23rd birthday. The salaries for group I are equal to the statutory minimum wage as of July 1, 2010. An employee in group I moves to group II no later than 12 months after appointment.</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Group II. Job titles: deliverer, goods processing employee, goods receipt employee, administrative employee, cash desk employee, cashier, sales employee, service employee, info desk employee, and rental employee.</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1073.04</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Salary amounts are based on a 38-hour work week. The hourly wage is the monthly wage divided by 164.67. To calculate 4-week wages from monthly wages, multiply by 12 and divide by 13. Salary increases for function years apply after the 23rd birthday.</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Group III. Job titles: head cashier (&lt; 5 FTE), head sales employee (&lt; 5 FTE), head of goods processing (&lt; 3 FTE), head of goods receipt (&lt; 3 FTE), head of warehouse (&lt; 3 FTE), head of information and rental (&lt; 3 FTE), and all-round employee. The term 'head' should be understood as 'department responsible'.</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1104.27</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>1019.33</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Salary amounts are based on a 38-hour work week. The hourly wage is the monthly wage divided by 164.67. To calculate 4-week wages from monthly wages, multiply by 12 and divide by 13. Salary increases for function years apply after the 23rd birthday.</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Group IV. Job titles: head cashier (&gt;= 5 FTE), head sales employee (&gt;= 5 FTE), head of information and rental (&gt;= 3 FTE), head of warehouse (&gt;= 3 FTE), assistant manager (&lt; 15 FTE), and assistant hardware store manager (&lt; 15 FTE). The term 'head' should be understood as 'department responsible'.</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1135.5</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1048.16</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Salary amounts are based on a 38-hour work week. The hourly wage is the monthly wage divided by 164.67. To calculate 4-week wages from monthly wages, multiply by 12 and divide by 13. Salary increases for function years apply after the 23rd birthday.</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Group V. Job titles: assistant manager (&gt;= 15 FTE), and assistant hardware store manager (&gt;= 15 FTE).</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1640.53</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>1514.34</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Salary amounts are based on a 38-hour work week. The hourly wage is the monthly wage divided by 164.67. To calculate 4-week wages from monthly wages, multiply by 12 and divide by 13. Salary increases for function years apply after the 23rd birthday. The starting salary shown is for age 23 with 0 function years, as no amounts are listed for younger ages.</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Group VI. Job titles: manager and hardware store manager.</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1837.4</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>1696.06</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>4-weekly</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Salary amounts are based on a 38-hour work week. The hourly wage is the monthly wage divided by 164.67. To calculate 4-week wages from monthly wages, multiply by 12 and divide by 13. Salary increases for function years apply after the 23rd birthday. The starting salary shown is for age 23 with 0 function years, as no amounts are listed for younger ages.</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>The employer is obliged to have a pension scheme in which the employee participates. In general, the pension scheme of the Bedrijfstakpensioenfonds Detailhandel (Retail Industry Pension Fund) applies, or a dispensed pension scheme that must be equivalent to the scheme of the Bedrijfstakpensioenfonds Detailhandel. (Art. 8.10)</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>The employment contract ends by operation of law on the first day of the month in which the employee reaches the age of 65, or on the date on which the employee becomes entitled to a pension under the employer's applicable pension scheme. (Art. 4.2.2)</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>Pregnancy and maternity leave: at least 16 weeks, with at least 10 weeks after childbirth (Appendix 5). Partner leave (kraamverlof): 2 working days to be taken within four weeks of birth (Appendix 5 and Art. 6.6.3.f). Adoption leave: a maximum of 4 weeks per parent (Appendix 5).</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>During pregnancy and maternity leave, the employee is entitled to a benefit. During adoption leave, the employee is entitled to a benefit, although the leave is described as 'without pay'. Paternity leave is with pay. For short-term care leave, 70% of the salary is paid, with a minimum of the statutory minimum wage.</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>The employee must notify the employer of pregnancy leave at least 3 weeks in advance. Adoption leave must be taken within 18 weeks, starting from 2 weeks before the adoption date, and the employer must be notified at least 3 weeks in advance. The partner must inform the employer as soon as possible about taking paternity leave.</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>A full-time employee is entitled to 24 working days or 182.4 hours per year. This increases based on age: 25 days at age 50, 26 days at age 55, and 27 days at age 60. It also increases based on tenure: 26 days after 25 years of service, and 28 days after 40 years of service. If both age and tenure-based rules apply, the employee receives the highest entitlement.</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>working days or hours per year</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>The vacation year coincides with the calendar year. For a 38-hour work week, one vacation day equals 7.6 hours. At least 2 weeks of vacation must be taken consecutively. The employer can designate up to 3 mandatory collective vacation days. The holiday allowance is 8% of the salary earned from June 1st to May 31st, paid out in June. Unused vacation expires after the statutory period. Upon termination, remaining vacation days are paid out.</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>A mutually equal notice period of 2 months applies. For a branch manager/DIY store manager, a mutually equal notice period of 3 months applies. (Art. 4.2.3)</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>The notice periods can be shortened in the individual employment agreement. The relevant articles of the Dutch Civil Code (7:672, 7:677, 7:678, and 7:679) apply. (Art. 4.2.1, 4.2.3)</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>A mutually equal notice period of 2 months applies. For a branch manager/DIY store manager, a mutually equal notice period of 3 months applies. (Art. 4.2.3)</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>The notice periods can be shortened in the individual employment agreement. The relevant articles of the Dutch Civil Code (7:672, 7:677, 7:678, and 7:679) apply. (Art. 4.2.1, 4.2.3)</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>A probationary period of a maximum of 2 months applies, regardless of the duration of the employment contract, unless explicitly agreed otherwise. (Art. 4.1.1)</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>The probation period must be laid down in writing and applies mutually. (Art. 4.1.1)</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>For the first two hours of overtime following the regular schedule: 125% of the hourly wage. For subsequent hours: 150% of the hourly wage. Surcharges can be paid in money or compensated in time off. (Art. 8.1.2, 8.2.7)</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>Maximum of 9 hours per day and an average maximum of 40 hours per week, calculated over a 4-week period. Overtime is defined as work exceeding these hours. (Art. 5.1.3, 5.2.1)</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>Surcharges for working at special hours: 50% for Monday-Saturday from 00:00-06:00 and Monday-Friday from 21:00-24:00. 100% for Saturday 18:00 to Sunday 24:00 and on public holidays. Working on a Sunday or public holiday is compensated at 200% (100% for the work + 100% surcharge). If a public holiday is a standard workday for the employee, total compensation is 300%. Surcharges can be paid out in money or compensated in time off. The surcharge scheme does not apply to employees with an income above the maximum premium income limit of the Health Insurance Act. (Art. 8.2)</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>An incidental excess of the daily scheduled working hours of 15 minutes or less is not considered overtime and does not qualify for special hour surcharges. (Art. 5.2.1, 8.2.3)</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>An employee cannot be obliged to work more than 6 Sundays per year. An employee cannot be obliged to work more than 2 evenings per week, or on a Saturday afternoon combined with more than 1 evening per week. (Art. 8.2.4, 8.2.5)</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>Time for training, such as for a first-aid responder, is considered paid working time. For training required by the employer, all necessary training and travel costs are fully reimbursed, and study time during work hours is paid. For training at the employee's request, reimbursement is 50% for job-related courses and 25% for general development courses, with employer's consent. If an employee resigns, a portion of the study costs can be reclaimed by the employer: 75% within 1 year, 50% within 2 years, and 25% within 3 years. The CAO parties aim to establish a 'training house' for the DIY sector to improve skills and employability, promote internships, and use Recognition of Prior Learning (EVC) trajectories. Safety training courses will also be promoted.</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dhz-cao 2009-2011 def.json</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1639011</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>30/06/2011</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>09/03/2011</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>833</v>
+      </c>
+      <c r="C32" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1762</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" t="inlineStr"/>
+      <c r="BN32" t="inlineStr"/>
+      <c r="BO32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>833</v>
+      </c>
+      <c r="C33" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1867</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>833</v>
+      </c>
+      <c r="C34" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1974</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>833</v>
+      </c>
+      <c r="C35" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2154</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>833</v>
+      </c>
+      <c r="C36" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2242</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>833</v>
+      </c>
+      <c r="C37" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2360</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>833</v>
+      </c>
+      <c r="C38" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2580</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>833</v>
+      </c>
+      <c r="C39" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>2839</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>833</v>
+      </c>
+      <c r="C40" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>3095</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>833</v>
+      </c>
+      <c r="C41" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3309</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>833</v>
+      </c>
+      <c r="C42" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>3644</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
+      <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>833</v>
+      </c>
+      <c r="C43" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>3930</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>833</v>
+      </c>
+      <c r="C44" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4285</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
+      <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="inlineStr"/>
+      <c r="BO44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>833</v>
+      </c>
+      <c r="C45" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4776</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="inlineStr"/>
+      <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>833</v>
+      </c>
+      <c r="C46" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>5487</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>The regular salary scale includes several columns: Introductory step, Starting level, End level, End level extended scale, and Step amount. The 'Introductory step' is intended for employees who do not yet have the skills to fully perform the job. The 'End level extended scale' is only for employees employed before 25 October 2005. An employee receives an annual salary increase until the end of their scale is reached; for normal/good performance, this increase is 2% of the end of the regular salary scale. A performance-based pay system can be implemented. A separate entry salary scale (Art. 4.3) exists for school-leavers and new entrants without experience. The salary provisions in this CAO do not apply to employees under a subsidy scheme; they may receive the minimum wage. Job classification is based on the 'Handboek functie-indeling woondiensten (November 2003 edition)'. Salaries for temporary agency workers must be equivalent to the CAO scales (Art. 4.3 and 4.4).</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>833</v>
+      </c>
+      <c r="C47" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>The pension scheme is administered by the Stichting Pensioenfonds voor de Woningcorporaties (SPW). For employees born on or after January 1, 1950, the total old-age pension premium for 2013 is 31% of the pensionable salary. The employer pays 21.31% and the employee pays 9.69%. The pensionable salary is the annual fixed monthly salary plus holiday allowance, minus a franchise of €13,227. For employees born before January 1, 1950, the total old-age pension premium for 2013 is 26% of the pensionable salary. The employer pays 14.99% and the employee pays 11.01%. For this group, the franchise is €16,739.</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>In addition to the basic pension premium, there are other contributions. A premium for transitional early retirement of 1.6% is paid entirely by the employer; any future changes to this premium are also for the employer's account. A VPL premium of 2.5% is also paid entirely by the employer. For employees born before January 1, 1950, there is an Overgangs- en Ingroei-VUT-regeling (Transitional and phase-in early retirement scheme), which is financed by employers through a premium on the pensionable annual salary. This VUT scheme is valid until December 31, 2015.</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>Employees born before January 1, 1950, are entitled to early retirement according to the (early) pension regulations of SPW. They may also be entitled to a benefit under the Transitional and Phase-in VUT scheme. Employees born on or after January 1, 1950, may stop working before their 65th year under certain conditions, receiving a conditional supplement to their old-age pension.</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>The CAO distinguishes between two age groups for pension regulations: employees born before January 1, 1950, and employees born on or after January 1, 1950.</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr"/>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
+      <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>833</v>
+      </c>
+      <c r="C48" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Parental leave is mentioned in the context of the life-course savings scheme (levensloopregeling). An employer can only oppose the timing of this leave based on serious business or service interests (Article 9.10). No other information on maternity, adoption, or child-related leave is provided.</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>An employee with a 36-hour workweek is entitled to 189.8 vacation hours per calendar year, consisting of 144 statutory and 45.8 non-statutory hours. Employees in salary groups K to O receive an additional 28.8 non-statutory hours. A transitional arrangement for employees in service before January 1, 2012, grants additional hours based on age: employees aged 51-55 (in 2013) get 194.4 hours total; ages 56-60 get 201.6 hours total; and ages 61-64 (in 2012) get 208.8 hours total.</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>hours per calendar year</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>Non-statutory vacation hours can be paid out upon request with the employer's consent. During illness, statutory vacation hours accrue fully. Non-statutory hours accrue fully for the first 26 weeks of illness, and thereafter only over the hours the employee is fit for work. The employer can designate up to three days as mandatory collective vacation. The holiday allowance is 8% of the annual salary. Public holidays not worked are New Year's Day, Easter (2 days), Queen's Day, Ascension Day, Pentecost (2 days), and Christmas (2 days).</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
+      <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>833</v>
+      </c>
+      <c r="C49" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>The notice period for the employer depends on the employee's uninterrupted length of service: 1 month for up to 4 years of service; 2 months for 5 to 9 years; 3 months for 10 to 14 years; and 4 months for 15 or more years of service.</t>
+        </is>
+      </c>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>The employment contract ends on the day the employee turns 65. In case of involuntary dismissal, the employee receives a supplement to their unemployment (WW) benefit, bringing it to 80% of their net salary for the first three months. For employees aged 60 or older, this supplement to 80% of net salary continues until their pension date. In case of dismissal due to downsizing or reorganization, an employee may be entitled to a compensation of up to 100% of their net salary for a period determined by their age and years of service. Decisions on mergers, liquidations, reorganizations, etc., that result in dismissal require prior consultation with employee organizations.</t>
+        </is>
+      </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>The notice period for the employee is 1 month for up to 12 years of uninterrupted service, and 2 months for 13 or more years of service.</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
+      <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>833</v>
+      </c>
+      <c r="C50" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>Overtime is compensated in free time or money. Work outside normal business hours (Mon-Fri, 07:00-19:00) receives a surcharge: 25% for the first two hours directly before or after normal hours; 50% for hours beyond that; 100% between 00:00 and 06:00; 100% on Saturday and Sunday; and 200% on public holidays. Compensation is preferably in free time.</t>
+        </is>
+      </c>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>The average work week is 36 hours. In any given week, the working hours may not exceed 42 hours. An individual contract for up to 40 hours per week is possible.</t>
+        </is>
+      </c>
+      <c r="BJ50" t="inlineStr">
+        <is>
+          <t>In a 39-week period, individual working hours may not be less than 30 hours per week.</t>
+        </is>
+      </c>
+      <c r="BK50" t="inlineStr">
+        <is>
+          <t>Shifted working hours can be agreed upon for certain functions, for which the standard overtime surcharges do not apply. For on-call duty (bereikbaarheidsdienst), a gross fee is paid: €16.35 per weekday, €40.82 per weekend day, or €163.38 for a full week. Any work performed during on-call duty is compensated according to the overtime surcharge schedule and paid in money.</t>
+        </is>
+      </c>
+      <c r="BL50" t="inlineStr">
+        <is>
+          <t>Working up to half an hour longer directly after the normal working day is not considered overtime. If the work extends beyond half an hour, the entire duration is considered overtime.</t>
+        </is>
+      </c>
+      <c r="BM50" t="inlineStr">
+        <is>
+          <t>Employees aged 55 and older cannot be obliged to work overtime. Employees with conscientious objections cannot be forced to work on Sundays. On-call duty is limited to a maximum of one week per four weeks, two consecutive weekends, and twenty weekends per calendar year.</t>
+        </is>
+      </c>
+      <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>833</v>
+      </c>
+      <c r="C51" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="inlineStr"/>
+      <c r="BL51" t="inlineStr"/>
+      <c r="BM51" t="inlineStr"/>
+      <c r="BN51" t="inlineStr">
+        <is>
+          <t>If the employer requires training for an employee's current function, the employer covers all costs without a repayment arrangement. Employees have a right to an individual career development budget. For employees in service for 5+ years as of Jan 1, 2010, this budget is €900 per year (€450 minimum for part-timers). For those hired on or after Jan 1, 2010, the budget is €900 per year (€450 minimum for part-timers), which can be saved up to a maximum of €4,500. This budget is not considered income. A contribution of 0.15% of the gross annual salary (split 50/50 between employer and employee) is paid to the FLOW foundation for learning and development. Employers also contribute €19 per employee annually for union training initiatives. A collectively financed 'Loopbaanwijzer' (Career Guide) tool is available to employees.</t>
+        </is>
+      </c>
+      <c r="BO51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CAO_Woondiensten_2013_tm_juni_definitieve_tekst.json</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>833</v>
+      </c>
+      <c r="C52" t="n">
+        <v>833004</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>30/06/2013</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>17/04/2013</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
+      <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="inlineStr"/>
+      <c r="BL52" t="inlineStr"/>
+      <c r="BM52" t="inlineStr"/>
+      <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="inlineStr">
+        <is>
+          <t>The CAO mentions 'The New Way of Working' (Het Nieuwe Werken) as a topic of focus. A budget is allocated in 2012 for the implementation of the 'Guide to The New Way of Working' and for initiatives related to leadership and working time arrangements within this framework. No specific rules on eligibility, allowances, or equipment are provided.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
